--- a/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/card.xlsx
+++ b/barsgl/barsgl-ejbparent/barsgl-ejbtest/src/test/resources/card.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IJpr\barsgl-xls\barsgl-ejbparent\barsgl-ejbtest\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="23895" windowHeight="14535"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="11355" windowHeight="9210"/>
   </bookViews>
   <sheets>
     <sheet name="expBatchforBarsGL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Направление</t>
   </si>
@@ -42,25 +37,34 @@
     <t>Картотека</t>
   </si>
   <si>
+    <t>Narr_eng</t>
+  </si>
+  <si>
+    <t>narr_rus</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>12-08-2016</t>
-  </si>
-  <si>
-    <t>211849.00</t>
-  </si>
-  <si>
-    <t>688851</t>
-  </si>
-  <si>
-    <t>RUR320602057</t>
-  </si>
-  <si>
-    <t>40702810100014690591</t>
-  </si>
-  <si>
-    <t>1.2</t>
+    <t>6.08</t>
+  </si>
+  <si>
+    <t>008623</t>
+  </si>
+  <si>
+    <t>RUR320799101</t>
+  </si>
+  <si>
+    <t>40802810320500000006</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>MS ACCESS ID 8085</t>
+  </si>
+  <si>
+    <t>00862389RURIECA101   ИП  №126327 от 08.12.2016 Вид.опер.06 очер.5</t>
   </si>
 </sst>
 </file>
@@ -69,24 +73,19 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -151,12 +150,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -168,9 +170,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -219,7 +218,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -254,7 +253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
@@ -477,9 +476,11 @@
     <col min="5" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="66.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,67 +502,100 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B2" s="3">
+        <v>42733</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="B3" s="3"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>